--- a/src/test/resources/testdata/TestData.xlsx
+++ b/src/test/resources/testdata/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merin\eclipse-workspace\StarAgile_Project_HumanResourceManagement\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0A87E4-2080-4A3B-86E3-5BAF1AE79A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FD0332-7BC2-495D-AA0D-AA968720D1FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Admin</t>
   </si>
@@ -372,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -414,9 +414,17 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>9</v>
       </c>
     </row>
